--- a/hello world.xlsx
+++ b/hello world.xlsx
@@ -15,7 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>Hola mundo !</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,7 +360,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,144 +368,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
-      </c>
-      <c r="I1">
-        <v>9</v>
-      </c>
-      <c r="J1">
-        <v>10</v>
-      </c>
-      <c r="K1">
-        <v>11</v>
-      </c>
-      <c r="L1">
-        <v>12</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>14</v>
-      </c>
-      <c r="O1">
-        <v>15</v>
-      </c>
-      <c r="P1">
-        <v>16</v>
-      </c>
-      <c r="Q1">
-        <v>17</v>
-      </c>
-      <c r="R1">
-        <v>18</v>
-      </c>
-      <c r="S1">
-        <v>19</v>
-      </c>
-      <c r="T1">
-        <v>20</v>
-      </c>
-      <c r="U1">
-        <v>21</v>
-      </c>
-      <c r="V1">
-        <v>22</v>
-      </c>
-      <c r="W1">
-        <v>23</v>
-      </c>
-      <c r="X1">
-        <v>24</v>
-      </c>
-      <c r="Y1">
-        <v>25</v>
-      </c>
-      <c r="Z1">
-        <v>26</v>
-      </c>
-      <c r="AA1">
-        <v>27</v>
-      </c>
-      <c r="AB1">
-        <v>28</v>
-      </c>
-      <c r="AC1">
-        <v>29</v>
-      </c>
-      <c r="AD1">
-        <v>30</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2">
-        <v>2</v>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>71706445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
